--- a/Data/CrappieCooker/CrappieCooker_test4/CrappieCooker_test4_TE_DataEntryForm.xlsx
+++ b/Data/CrappieCooker/CrappieCooker_test4/CrappieCooker_test4_TE_DataEntryForm.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mountain Air\equipment\Ratnoze\DataProcessing\LEMS\LEMS-Data-Processing\Data\CrappieCooker\CrappieCooker_test4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaden\Documents\GitHub\LEMS-Data-Processing\Data\CrappieCooker\CrappieCooker_test4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3AD0B6-5FAF-4236-9A4F-32A992DC2520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9DF9BEAD-323A-4D1F-A65B-4AF6D8D1D7AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ThermalEfficiencyInputs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Samuel Bentson</author>
   </authors>
   <commentList>
-    <comment ref="F35" authorId="0" shapeId="0" xr:uid="{7A9DCCA4-64F0-43E8-8EBC-13D5BF460E59}">
+    <comment ref="F35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K35" authorId="0" shapeId="0" xr:uid="{8996DE03-C450-4A44-8D30-6C1CCA31E3CC}">
+    <comment ref="K35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P35" authorId="0" shapeId="0" xr:uid="{7F34AE1B-BF52-47D9-8D31-5DC22F1180CB}">
+    <comment ref="P35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="186">
   <si>
     <t>HIGH POWER TEST (COLD START)</t>
   </si>
@@ -673,12 +672,39 @@
   </si>
   <si>
     <t>paper</t>
+  </si>
+  <si>
+    <t>Weighting for voluntary performance Tiers</t>
+  </si>
+  <si>
+    <t>High Power</t>
+  </si>
+  <si>
+    <t>weight_hp</t>
+  </si>
+  <si>
+    <t>Med Power</t>
+  </si>
+  <si>
+    <t>weight_mp</t>
+  </si>
+  <si>
+    <t>Low Power</t>
+  </si>
+  <si>
+    <t>weight_lp</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>weight_total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1359,6 +1385,24 @@
     <xf numFmtId="167" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1366,24 +1410,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1700,29 +1726,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F031B2B2-166A-4FD0-84C6-B19351E2FA63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.85546875" customWidth="1"/>
-    <col min="22" max="22" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" customWidth="1"/>
+    <col min="22" max="22" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47"/>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -1744,18 +1770,18 @@
       <c r="S1" s="47"/>
       <c r="T1" s="47"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="48"/>
       <c r="B2" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="47"/>
       <c r="I2" s="95" t="s">
         <v>153</v>
@@ -1772,18 +1798,18 @@
       <c r="S2" s="47"/>
       <c r="T2" s="47"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48"/>
       <c r="B3" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="113">
+      <c r="C3" s="119">
         <v>1</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="47"/>
       <c r="I3" s="98"/>
       <c r="J3" s="91"/>
@@ -1798,18 +1824,18 @@
       <c r="S3" s="47"/>
       <c r="T3" s="47"/>
     </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48"/>
       <c r="B4" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="119" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
       <c r="H4" s="47"/>
       <c r="I4" s="98"/>
       <c r="J4" s="91"/>
@@ -1824,18 +1850,18 @@
       <c r="S4" s="47"/>
       <c r="T4" s="47"/>
     </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="47"/>
       <c r="I5" s="69"/>
       <c r="J5" s="91"/>
@@ -1850,18 +1876,18 @@
       <c r="S5" s="47"/>
       <c r="T5" s="47"/>
     </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="47"/>
       <c r="I6" s="106" t="s">
         <v>154</v>
@@ -1878,18 +1904,18 @@
       <c r="S6" s="47"/>
       <c r="T6" s="47"/>
     </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="47"/>
       <c r="I7" s="98"/>
       <c r="J7" s="91"/>
@@ -1904,7 +1930,7 @@
       <c r="S7" s="47"/>
       <c r="T7" s="47"/>
     </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -1926,7 +1952,7 @@
       <c r="S8" s="47"/>
       <c r="T8" s="47"/>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="54" t="s">
@@ -1954,7 +1980,7 @@
       <c r="S9" s="47"/>
       <c r="T9" s="47"/>
     </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="17" t="s">
         <v>36</v>
@@ -1984,7 +2010,7 @@
       <c r="S10" s="47"/>
       <c r="T10" s="47"/>
     </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="17" t="s">
         <v>37</v>
@@ -2016,7 +2042,7 @@
       <c r="S11" s="47"/>
       <c r="T11" s="47"/>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="17" t="s">
         <v>129</v>
@@ -2046,7 +2072,7 @@
       <c r="S12" s="47"/>
       <c r="T12" s="47"/>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="17" t="s">
         <v>145</v>
@@ -2076,7 +2102,7 @@
       <c r="S13" s="47"/>
       <c r="T13" s="47"/>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="17" t="s">
         <v>38</v>
@@ -2106,7 +2132,7 @@
       <c r="S14" s="53"/>
       <c r="T14" s="47"/>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="17" t="s">
         <v>130</v>
@@ -2136,7 +2162,7 @@
       <c r="S15" s="53"/>
       <c r="T15" s="47"/>
     </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="B16" s="22" t="s">
         <v>143</v>
@@ -2168,7 +2194,7 @@
       <c r="S16" s="53"/>
       <c r="T16" s="47"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="22" t="s">
         <v>28</v>
@@ -2198,7 +2224,7 @@
       <c r="S17" s="53"/>
       <c r="T17" s="47"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="22" t="s">
         <v>29</v>
@@ -2226,7 +2252,7 @@
       <c r="S18" s="53"/>
       <c r="T18" s="47"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="22" t="s">
         <v>30</v>
@@ -2254,7 +2280,7 @@
       <c r="S19" s="53"/>
       <c r="T19" s="47"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="23" t="s">
         <v>31</v>
@@ -2282,7 +2308,7 @@
       <c r="S20" s="53"/>
       <c r="T20" s="47"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -2306,20 +2332,20 @@
       <c r="S21" s="53"/>
       <c r="T21" s="47"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="48"/>
       <c r="B22" s="25" t="s">
         <v>131</v>
       </c>
       <c r="C22" s="58"/>
-      <c r="D22" s="111" t="s">
+      <c r="D22" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="111" t="s">
+      <c r="E22" s="118"/>
+      <c r="F22" s="117" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="112"/>
+      <c r="G22" s="118"/>
       <c r="H22" s="47"/>
       <c r="I22" s="65"/>
       <c r="J22" s="93"/>
@@ -2334,7 +2360,7 @@
       <c r="S22" s="53"/>
       <c r="T22" s="47"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="51"/>
       <c r="C23" s="59" t="s">
@@ -2366,7 +2392,7 @@
       <c r="S23" s="47"/>
       <c r="T23" s="47"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48"/>
       <c r="B24" s="17" t="s">
         <v>136</v>
@@ -2400,7 +2426,7 @@
       <c r="S24" s="47"/>
       <c r="T24" s="47"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="48"/>
       <c r="B25" s="17" t="s">
         <v>137</v>
@@ -2434,7 +2460,7 @@
       <c r="S25" s="47"/>
       <c r="T25" s="47"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="48"/>
       <c r="B26" s="17" t="s">
         <v>138</v>
@@ -2470,7 +2496,7 @@
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="48"/>
       <c r="B27" s="19" t="s">
         <v>139</v>
@@ -2506,7 +2532,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="48"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -2530,7 +2556,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48"/>
       <c r="B29" s="26"/>
       <c r="C29" s="27"/>
@@ -2560,7 +2586,7 @@
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="48"/>
       <c r="B30" s="33"/>
       <c r="C30" s="5"/>
@@ -2568,61 +2594,61 @@
         <v>3</v>
       </c>
       <c r="E30" s="18"/>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="G30" s="115"/>
+      <c r="G30" s="112"/>
       <c r="H30" s="4"/>
       <c r="I30" s="6" t="s">
         <v>3</v>
       </c>
       <c r="J30" s="7"/>
-      <c r="K30" s="114" t="s">
+      <c r="K30" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="L30" s="115"/>
+      <c r="L30" s="112"/>
       <c r="M30" s="4"/>
       <c r="N30" s="18" t="s">
         <v>3</v>
       </c>
       <c r="O30" s="18"/>
-      <c r="P30" s="114" t="s">
+      <c r="P30" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="Q30" s="118"/>
+      <c r="Q30" s="115"/>
       <c r="R30" s="47"/>
       <c r="S30" s="47"/>
       <c r="T30" s="47"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
       <c r="B31" s="34"/>
       <c r="C31" s="5"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="116" t="s">
+      <c r="F31" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="117"/>
+      <c r="G31" s="114"/>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="116" t="s">
+      <c r="K31" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="117"/>
+      <c r="L31" s="114"/>
       <c r="M31" s="4"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
-      <c r="P31" s="116" t="s">
+      <c r="P31" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="119"/>
+      <c r="Q31" s="116"/>
       <c r="R31" s="47"/>
       <c r="S31" s="47"/>
       <c r="T31" s="47"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="48"/>
       <c r="B32" s="35" t="s">
         <v>6</v>
@@ -2672,7 +2698,7 @@
       <c r="S32" s="47"/>
       <c r="T32" s="47"/>
     </row>
-    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="48"/>
       <c r="B33" s="36" t="s">
         <v>10</v>
@@ -2714,7 +2740,7 @@
       <c r="S33" s="47"/>
       <c r="T33" s="47"/>
     </row>
-    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="36" t="s">
         <v>12</v>
@@ -2756,7 +2782,7 @@
       <c r="S34" s="47"/>
       <c r="T34" s="47"/>
     </row>
-    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47"/>
       <c r="B35" s="36" t="s">
         <v>14</v>
@@ -2798,7 +2824,7 @@
       <c r="S35" s="47"/>
       <c r="T35" s="47"/>
     </row>
-    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47"/>
       <c r="B36" s="39" t="s">
         <v>16</v>
@@ -2836,7 +2862,7 @@
       <c r="S36" s="47"/>
       <c r="T36" s="47"/>
     </row>
-    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47"/>
       <c r="B37" s="39" t="s">
         <v>17</v>
@@ -2874,7 +2900,7 @@
       <c r="S37" s="47"/>
       <c r="T37" s="47"/>
     </row>
-    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47"/>
       <c r="B38" s="39" t="s">
         <v>18</v>
@@ -2912,7 +2938,7 @@
       <c r="S38" s="47"/>
       <c r="T38" s="47"/>
     </row>
-    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="36" t="s">
         <v>19</v>
@@ -2954,7 +2980,7 @@
       <c r="S39" s="47"/>
       <c r="T39" s="47"/>
     </row>
-    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47"/>
       <c r="B40" s="39" t="s">
         <v>20</v>
@@ -2992,7 +3018,7 @@
       <c r="S40" s="47"/>
       <c r="T40" s="47"/>
     </row>
-    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47"/>
       <c r="B41" s="39" t="s">
         <v>21</v>
@@ -3030,7 +3056,7 @@
       <c r="S41" s="47"/>
       <c r="T41" s="47"/>
     </row>
-    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47"/>
       <c r="B42" s="39" t="s">
         <v>22</v>
@@ -3068,7 +3094,7 @@
       <c r="S42" s="47"/>
       <c r="T42" s="47"/>
     </row>
-    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
       <c r="B43" s="36" t="s">
         <v>25</v>
@@ -3110,7 +3136,7 @@
       <c r="S43" s="47"/>
       <c r="T43" s="47"/>
     </row>
-    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47"/>
       <c r="B44" s="39" t="s">
         <v>23</v>
@@ -3144,7 +3170,7 @@
       <c r="S44" s="47"/>
       <c r="T44" s="47"/>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
       <c r="B45" s="36" t="s">
         <v>26</v>
@@ -3178,7 +3204,7 @@
       <c r="S45" s="47"/>
       <c r="T45" s="47"/>
     </row>
-    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="47"/>
       <c r="B46" s="36" t="s">
         <v>146</v>
@@ -3212,7 +3238,7 @@
       <c r="S46" s="47"/>
       <c r="T46" s="47"/>
     </row>
-    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="47"/>
       <c r="B47" s="39" t="s">
         <v>147</v>
@@ -3244,7 +3270,7 @@
       <c r="S47" s="47"/>
       <c r="T47" s="47"/>
     </row>
-    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="B48" s="39" t="s">
         <v>148</v>
@@ -3276,7 +3302,7 @@
       <c r="S48" s="47"/>
       <c r="T48" s="47"/>
     </row>
-    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="47"/>
       <c r="B49" s="44" t="s">
         <v>149</v>
@@ -3308,7 +3334,7 @@
       <c r="S49" s="47"/>
       <c r="T49" s="47"/>
     </row>
-    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="47"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -3330,9 +3356,11 @@
       <c r="S50" s="47"/>
       <c r="T50" s="47"/>
     </row>
-    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
+      <c r="B51" s="47" t="s">
+        <v>177</v>
+      </c>
       <c r="C51" s="47"/>
       <c r="D51" s="47"/>
       <c r="E51" s="47"/>
@@ -3352,12 +3380,18 @@
       <c r="S51" s="47"/>
       <c r="T51" s="47"/>
     </row>
-    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="47"/>
       <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
+      <c r="C52" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>9</v>
+      </c>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
@@ -3374,12 +3408,18 @@
       <c r="S52" s="47"/>
       <c r="T52" s="47"/>
     </row>
-    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
+      <c r="B53" s="47" t="s">
+        <v>178</v>
+      </c>
       <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="D53" s="47">
+        <v>1</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>179</v>
+      </c>
       <c r="F53" s="47"/>
       <c r="G53" s="47"/>
       <c r="H53" s="47"/>
@@ -3396,12 +3436,18 @@
       <c r="S53" s="47"/>
       <c r="T53" s="47"/>
     </row>
-    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
+      <c r="B54" s="47" t="s">
+        <v>180</v>
+      </c>
       <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
+      <c r="D54" s="47">
+        <v>1</v>
+      </c>
+      <c r="E54" s="47" t="s">
+        <v>181</v>
+      </c>
       <c r="F54" s="47"/>
       <c r="G54" s="47"/>
       <c r="H54" s="47"/>
@@ -3418,12 +3464,18 @@
       <c r="S54" s="47"/>
       <c r="T54" s="47"/>
     </row>
-    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="47" t="s">
+        <v>182</v>
+      </c>
       <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
+      <c r="D55" s="47">
+        <v>1</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>183</v>
+      </c>
       <c r="F55" s="47"/>
       <c r="G55" s="47"/>
       <c r="H55" s="47"/>
@@ -3440,12 +3492,18 @@
       <c r="S55" s="47"/>
       <c r="T55" s="47"/>
     </row>
-    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
+      <c r="B56" s="47" t="s">
+        <v>184</v>
+      </c>
       <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
+      <c r="D56" s="47">
+        <v>3</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>185</v>
+      </c>
       <c r="F56" s="47"/>
       <c r="G56" s="47"/>
       <c r="H56" s="47"/>
@@ -3462,7 +3520,7 @@
       <c r="S56" s="47"/>
       <c r="T56" s="47"/>
     </row>
-    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
@@ -3484,7 +3542,7 @@
       <c r="S57" s="47"/>
       <c r="T57" s="47"/>
     </row>
-    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -3506,7 +3564,7 @@
       <c r="S58" s="47"/>
       <c r="T58" s="47"/>
     </row>
-    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
@@ -3528,7 +3586,7 @@
       <c r="S59" s="47"/>
       <c r="T59" s="47"/>
     </row>
-    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -3550,7 +3608,7 @@
       <c r="S60" s="47"/>
       <c r="T60" s="47"/>
     </row>
-    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -3572,7 +3630,7 @@
       <c r="S61" s="47"/>
       <c r="T61" s="47"/>
     </row>
-    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
@@ -3594,7 +3652,7 @@
       <c r="S62" s="47"/>
       <c r="T62" s="47"/>
     </row>
-    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -3616,7 +3674,7 @@
       <c r="S63" s="47"/>
       <c r="T63" s="47"/>
     </row>
-    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
@@ -3638,7 +3696,7 @@
       <c r="S64" s="47"/>
       <c r="T64" s="47"/>
     </row>
-    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
@@ -3660,7 +3718,7 @@
       <c r="S65" s="47"/>
       <c r="T65" s="47"/>
     </row>
-    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47"/>
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
@@ -3682,7 +3740,7 @@
       <c r="S66" s="47"/>
       <c r="T66" s="47"/>
     </row>
-    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47"/>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
@@ -3704,7 +3762,7 @@
       <c r="S67" s="47"/>
       <c r="T67" s="47"/>
     </row>
-    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="47"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
@@ -3726,7 +3784,7 @@
       <c r="S68" s="47"/>
       <c r="T68" s="47"/>
     </row>
-    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="47"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -3748,7 +3806,7 @@
       <c r="S69" s="47"/>
       <c r="T69" s="47"/>
     </row>
-    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="47"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -3770,7 +3828,7 @@
       <c r="S70" s="47"/>
       <c r="T70" s="47"/>
     </row>
-    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="47"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -3792,7 +3850,7 @@
       <c r="S71" s="47"/>
       <c r="T71" s="47"/>
     </row>
-    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
@@ -3814,7 +3872,7 @@
       <c r="S72" s="47"/>
       <c r="T72" s="47"/>
     </row>
-    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="47"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
@@ -3836,7 +3894,7 @@
       <c r="S73" s="47"/>
       <c r="T73" s="47"/>
     </row>
-    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="47"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
@@ -3858,7 +3916,7 @@
       <c r="S74" s="47"/>
       <c r="T74" s="47"/>
     </row>
-    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
@@ -3880,7 +3938,7 @@
       <c r="S75" s="47"/>
       <c r="T75" s="47"/>
     </row>
-    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
@@ -3902,7 +3960,7 @@
       <c r="S76" s="47"/>
       <c r="T76" s="47"/>
     </row>
-    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -3924,7 +3982,7 @@
       <c r="S77" s="47"/>
       <c r="T77" s="47"/>
     </row>
-    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -3946,7 +4004,7 @@
       <c r="S78" s="47"/>
       <c r="T78" s="47"/>
     </row>
-    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="47"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
@@ -3968,7 +4026,7 @@
       <c r="S79" s="47"/>
       <c r="T79" s="47"/>
     </row>
-    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="47"/>
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
@@ -3990,7 +4048,7 @@
       <c r="S80" s="47"/>
       <c r="T80" s="47"/>
     </row>
-    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="47"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
@@ -4012,7 +4070,7 @@
       <c r="S81" s="47"/>
       <c r="T81" s="47"/>
     </row>
-    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="47"/>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
@@ -4034,7 +4092,7 @@
       <c r="S82" s="47"/>
       <c r="T82" s="47"/>
     </row>
-    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="47"/>
       <c r="B83" s="47"/>
       <c r="C83" s="47"/>
@@ -4056,7 +4114,7 @@
       <c r="S83" s="47"/>
       <c r="T83" s="47"/>
     </row>
-    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="47"/>
       <c r="B84" s="47"/>
       <c r="C84" s="47"/>
@@ -4078,7 +4136,7 @@
       <c r="S84" s="47"/>
       <c r="T84" s="47"/>
     </row>
-    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="47"/>
       <c r="B85" s="47"/>
       <c r="C85" s="47"/>
@@ -4100,7 +4158,7 @@
       <c r="S85" s="47"/>
       <c r="T85" s="47"/>
     </row>
-    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="47"/>
       <c r="B86" s="47"/>
       <c r="C86" s="47"/>
@@ -4122,7 +4180,7 @@
       <c r="S86" s="47"/>
       <c r="T86" s="47"/>
     </row>
-    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="47"/>
       <c r="B87" s="47"/>
       <c r="C87" s="47"/>
@@ -4144,7 +4202,7 @@
       <c r="S87" s="47"/>
       <c r="T87" s="47"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="47"/>
       <c r="B88" s="47"/>
       <c r="C88" s="47"/>
@@ -4166,7 +4224,7 @@
       <c r="S88" s="47"/>
       <c r="T88" s="47"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="47"/>
       <c r="B89" s="47"/>
       <c r="C89" s="47"/>
@@ -4188,7 +4246,7 @@
       <c r="S89" s="47"/>
       <c r="T89" s="47"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="47"/>
       <c r="B90" s="47"/>
       <c r="C90" s="47"/>
@@ -4210,7 +4268,7 @@
       <c r="S90" s="47"/>
       <c r="T90" s="47"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -4228,7 +4286,7 @@
       <c r="P91" s="2"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -4246,7 +4304,7 @@
       <c r="P92" s="2"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -4264,7 +4322,7 @@
       <c r="P93" s="2"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -4282,7 +4340,7 @@
       <c r="P94" s="2"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -4300,7 +4358,7 @@
       <c r="P95" s="2"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4318,7 +4376,7 @@
       <c r="P96" s="2"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4336,7 +4394,7 @@
       <c r="P97" s="2"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4354,7 +4412,7 @@
       <c r="P98" s="2"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4374,12 +4432,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="C2:G2"/>
@@ -4388,6 +4440,12 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="C7:G7"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
